--- a/AutoNation/testData/autoNationTestData.xlsx
+++ b/AutoNation/testData/autoNationTestData.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\eclipse-workspace.java\AutoNation\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\git\AutoNation\AutoNation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5643B6-3D3C-46ED-BA08-B29BDFCD0440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01E2A96-C170-4C45-9CB9-AC489BD32B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{78CBA55D-1B19-4042-8B09-460EABE3047D}"/>
+    <workbookView xWindow="3588" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{78CBA55D-1B19-4042-8B09-460EABE3047D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData1" sheetId="2" r:id="rId1"/>
     <sheet name="TestData2" sheetId="1" r:id="rId2"/>
     <sheet name="TestData3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestData4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>FirstName</t>
   </si>
@@ -123,6 +124,21 @@
   </si>
   <si>
     <t>WD</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Search BOX</t>
+  </si>
+  <si>
+    <t>downpayment</t>
+  </si>
+  <si>
+    <t>intrestRate</t>
+  </si>
+  <si>
+    <t>calculated</t>
   </si>
 </sst>
 </file>
@@ -185,12 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9833BAFF-67CE-4881-B4EF-DAC789F1E46E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -668,4 +685,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD58803-832D-4B84-8084-E88C9EA95193}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1282.3900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutoNation/testData/autoNationTestData.xlsx
+++ b/AutoNation/testData/autoNationTestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\git\AutoNation\AutoNation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01E2A96-C170-4C45-9CB9-AC489BD32B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64CADC9-B4F2-4B55-8985-B8BDEA14FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{78CBA55D-1B19-4042-8B09-460EABE3047D}"/>
+    <workbookView xWindow="2712" yWindow="1068" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{78CBA55D-1B19-4042-8B09-460EABE3047D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData1" sheetId="2" r:id="rId1"/>
     <sheet name="TestData2" sheetId="1" r:id="rId2"/>
     <sheet name="TestData3" sheetId="3" r:id="rId3"/>
     <sheet name="TestData4" sheetId="4" r:id="rId4"/>
+    <sheet name="TestData5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>FirstName</t>
   </si>
@@ -57,9 +58,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>8892504_</t>
-  </si>
-  <si>
     <t>hemanth_@gmail.com</t>
   </si>
   <si>
@@ -139,13 +137,40 @@
   </si>
   <si>
     <t>calculated</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How soon can we get the vehicle after full payment is completed </t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Text sent from  We will answer you immediately</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>milage</t>
+  </si>
+  <si>
+    <t>$ 1,282.39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +204,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,13 +232,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,34 +555,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39871D3F-8F7D-4948-A819-A7C511EC7730}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>7037019</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -562,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10921BC5-109C-4F38-9279-5829DCC8DC76}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,25 +662,25 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -622,32 +690,32 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>7037019</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -673,12 +741,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +760,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,21 +772,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -726,8 +794,50 @@
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
-        <v>1282.3900000000001</v>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77189CE5-225E-4D03-ACBE-CF64E92B1CCE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7037019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/AutoNation/testData/autoNationTestData.xlsx
+++ b/AutoNation/testData/autoNationTestData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\git\AutoNation\AutoNation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64CADC9-B4F2-4B55-8985-B8BDEA14FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6D5A96-2D7F-41C2-93F8-7E671BA6A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2712" yWindow="1068" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{78CBA55D-1B19-4042-8B09-460EABE3047D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{78CBA55D-1B19-4042-8B09-460EABE3047D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData1" sheetId="2" r:id="rId1"/>
     <sheet name="TestData2" sheetId="1" r:id="rId2"/>
     <sheet name="TestData3" sheetId="3" r:id="rId3"/>
     <sheet name="TestData4" sheetId="4" r:id="rId4"/>
-    <sheet name="TestData5" sheetId="5" r:id="rId5"/>
+    <sheet name="smoke" sheetId="6" r:id="rId5"/>
+    <sheet name="TestData5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>FirstName</t>
   </si>
@@ -164,6 +165,36 @@
   </si>
   <si>
     <t>$ 1,282.39</t>
+  </si>
+  <si>
+    <t>TC_1 ExpectedResult</t>
+  </si>
+  <si>
+    <t>Used Cars, Trucks &amp; SUVs in Edmonton | Auto Nation</t>
+  </si>
+  <si>
+    <t>Tc_2 Expected Result</t>
+  </si>
+  <si>
+    <t>Used RVs: Motorhomes, Travel Trailers &amp; More</t>
+  </si>
+  <si>
+    <t>TC_3 Expected Result</t>
+  </si>
+  <si>
+    <t>Used SUVs for Sale | Auto Nation Canada</t>
+  </si>
+  <si>
+    <t>Used Cars for Sale in Acheson | Auto Nation Canada</t>
+  </si>
+  <si>
+    <t>TC_4 Expected Result</t>
+  </si>
+  <si>
+    <t>TC_5 Expected Result</t>
+  </si>
+  <si>
+    <t>Travel Trailers for Sale in Alberta | Auto Nation</t>
   </si>
 </sst>
 </file>
@@ -211,12 +242,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,6 +277,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD58803-832D-4B84-8084-E88C9EA95193}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -804,6 +842,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3BA31-21A1-4FE0-ACCB-A15F2B1FBA04}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.21875" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77189CE5-225E-4D03-ACBE-CF64E92B1CCE}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/AutoNation/testData/autoNationTestData.xlsx
+++ b/AutoNation/testData/autoNationTestData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\git\AutoNation\AutoNation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6D5A96-2D7F-41C2-93F8-7E671BA6A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D0659E-61D1-4BA7-9041-8AFEF0864E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{78CBA55D-1B19-4042-8B09-460EABE3047D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{78CBA55D-1B19-4042-8B09-460EABE3047D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData1" sheetId="2" r:id="rId1"/>
-    <sheet name="TestData2" sheetId="1" r:id="rId2"/>
+    <sheet name="VehicleAffordable" sheetId="1" r:id="rId2"/>
     <sheet name="TestData3" sheetId="3" r:id="rId3"/>
     <sheet name="TestData4" sheetId="4" r:id="rId4"/>
     <sheet name="smoke" sheetId="6" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,9 +71,6 @@
     <t>city</t>
   </si>
   <si>
-    <t> 66 47th Avenue</t>
-  </si>
-  <si>
     <t>Grand Centre</t>
   </si>
   <si>
@@ -89,15 +86,9 @@
     <t>grossIncome</t>
   </si>
   <si>
-    <t>5_</t>
-  </si>
-  <si>
     <t>monthlyIncome</t>
   </si>
   <si>
-    <t>4_</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
@@ -195,6 +186,18 @@
   </si>
   <si>
     <t>Travel Trailers for Sale in Alberta | Auto Nation</t>
+  </si>
+  <si>
+    <t>hemanth</t>
+  </si>
+  <si>
+    <t>gowda</t>
+  </si>
+  <si>
+    <t>hemanth@gmail.com</t>
+  </si>
+  <si>
+    <t>66 47th Avenue</t>
   </si>
 </sst>
 </file>
@@ -603,16 +606,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -627,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -635,13 +638,13 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -666,9 +669,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10921BC5-109C-4F38-9279-5829DCC8DC76}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -709,56 +712,65 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>703704</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>7037019</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{35B7118F-0CCE-4149-B3F2-CEAAD8251688}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{ED68473B-DCA7-4B86-89F0-5B7413876711}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -779,12 +791,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -810,21 +822,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -833,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3BA31-21A1-4FE0-ACCB-A15F2B1FBA04}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -860,36 +872,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -914,13 +926,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -928,10 +940,10 @@
         <v>7037019</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
